--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-01_end.xlsx
@@ -776,11 +776,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   "Oripathy."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  Those who have contracted Oripathy are called the "Infected."
+    <t xml:space="preserve">[name="Amiya"]   'Oripathy.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Those who have contracted Oripathy are called the 'Infected.'
 </t>
   </si>
   <si>
